--- a/Proyecto Interno/composicion-nut/TCAC_DANE 020925_rev.xlsx
+++ b/Proyecto Interno/composicion-nut/TCAC_DANE 020925_rev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\portatil\Documents\COSTOS DE LA DIETA -  NUTRICIÓN\entrega Natalia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/composicion-nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F35C8-994C-4C9A-A3B7-25F4C8C0480F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F64F35C8-994C-4C9A-A3B7-25F4C8C0480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37E5BF9-388E-4A68-BD9D-490E8D8D45F9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD DANE IPC" sheetId="4" r:id="rId1"/>
@@ -1098,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1135,9 +1135,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1213,9 +1210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1253,9 +1250,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1288,26 +1285,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,26 +1320,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1533,46 +1496,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3862031-D290-43CE-97A6-320D913D0298}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="47.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="26" width="11.42578125" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" customWidth="1"/>
-    <col min="28" max="29" width="15.5703125" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" style="10" customWidth="1"/>
-    <col min="32" max="32" width="26.5703125" customWidth="1"/>
-    <col min="33" max="33" width="29.85546875" customWidth="1"/>
-    <col min="34" max="34" width="17.5703125" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="26" width="11.44140625" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="28" max="29" width="15.5546875" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" customWidth="1"/>
+    <col min="31" max="31" width="11.44140625" style="10" customWidth="1"/>
+    <col min="32" max="32" width="26.5546875" customWidth="1"/>
+    <col min="33" max="33" width="29.88671875" customWidth="1"/>
+    <col min="34" max="34" width="17.5546875" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" customWidth="1"/>
+    <col min="36" max="36" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="26" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:36" s="25" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>96</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -1581,98 +1545,98 @@
       <c r="F1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="22" t="s">
         <v>188</v>
       </c>
       <c r="AE1" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AG1" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AH1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AI1" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5001</v>
       </c>
@@ -1775,11 +1739,11 @@
       <c r="AH2">
         <v>44</v>
       </c>
-      <c r="AI2" s="31">
+      <c r="AI2" s="30">
         <v>4.8888888888888893</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5001</v>
       </c>
@@ -1882,11 +1846,11 @@
       <c r="AH3">
         <v>44</v>
       </c>
-      <c r="AI3" s="31">
+      <c r="AI3" s="30">
         <v>4.8888888888888893</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5001</v>
       </c>
@@ -1899,7 +1863,7 @@
       <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>298</v>
       </c>
       <c r="F4" s="15"/>
@@ -1975,7 +1939,7 @@
       <c r="AD4" s="2">
         <v>0</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4" s="28">
         <v>0</v>
       </c>
       <c r="AF4" s="2">
@@ -1987,14 +1951,14 @@
       <c r="AH4" s="2">
         <v>0</v>
       </c>
-      <c r="AI4" s="32">
+      <c r="AI4" s="31">
         <v>0</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -2097,11 +2061,11 @@
       <c r="AH5">
         <v>45</v>
       </c>
-      <c r="AI5" s="31">
+      <c r="AI5" s="30">
         <v>25.139664804469273</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5001</v>
       </c>
@@ -2204,11 +2168,11 @@
       <c r="AH6">
         <v>90</v>
       </c>
-      <c r="AI6" s="31">
+      <c r="AI6" s="30">
         <v>81.081081081081081</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5001</v>
       </c>
@@ -2311,11 +2275,11 @@
       <c r="AH7">
         <v>88</v>
       </c>
-      <c r="AI7" s="31">
+      <c r="AI7" s="30">
         <v>24.444444444444443</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5001</v>
       </c>
@@ -2331,7 +2295,7 @@
       <c r="E8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>108</v>
       </c>
       <c r="G8" t="s">
@@ -2418,11 +2382,11 @@
       <c r="AH8">
         <v>88</v>
       </c>
-      <c r="AI8" s="31">
+      <c r="AI8" s="30">
         <v>24.929178470254957</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5001</v>
       </c>
@@ -2438,7 +2402,7 @@
       <c r="E9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>107</v>
       </c>
       <c r="G9" t="s">
@@ -2525,11 +2489,11 @@
       <c r="AH9">
         <v>88</v>
       </c>
-      <c r="AI9" s="31">
+      <c r="AI9" s="30">
         <v>24.929178470254957</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5001</v>
       </c>
@@ -2545,7 +2509,7 @@
       <c r="E10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>108</v>
       </c>
       <c r="G10" t="s">
@@ -2632,11 +2596,11 @@
       <c r="AH10">
         <v>88</v>
       </c>
-      <c r="AI10" s="31">
+      <c r="AI10" s="30">
         <v>24.929178470254957</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5001</v>
       </c>
@@ -2739,11 +2703,11 @@
       <c r="AH11">
         <v>88</v>
       </c>
-      <c r="AI11" s="31">
+      <c r="AI11" s="30">
         <v>21.256038647342994</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5001</v>
       </c>
@@ -2846,11 +2810,11 @@
       <c r="AH12" s="12">
         <v>24</v>
       </c>
-      <c r="AI12" s="31">
+      <c r="AI12" s="30">
         <v>24.242424242424242</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5001</v>
       </c>
@@ -2953,11 +2917,11 @@
       <c r="AH13" s="12">
         <v>82</v>
       </c>
-      <c r="AI13" s="31">
+      <c r="AI13" s="30">
         <v>21.925133689839573</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5001</v>
       </c>
@@ -3042,30 +3006,30 @@
       <c r="AB14" s="8">
         <v>8.5299999999999994</v>
       </c>
-      <c r="AC14" s="27">
+      <c r="AC14" s="26">
         <v>60</v>
       </c>
-      <c r="AD14" s="28">
+      <c r="AD14" s="27">
         <v>100</v>
       </c>
-      <c r="AE14" s="30">
+      <c r="AE14" s="29">
         <v>1</v>
       </c>
-      <c r="AF14" s="28" t="s">
+      <c r="AF14" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="AG14" s="28" t="s">
+      <c r="AG14" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="AH14" s="28">
+      <c r="AH14" s="27">
         <v>24</v>
       </c>
-      <c r="AI14" s="33">
+      <c r="AI14" s="32">
         <v>18.933417481855475</v>
       </c>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5001</v>
       </c>
@@ -3168,11 +3132,11 @@
       <c r="AH15" s="12">
         <v>88</v>
       </c>
-      <c r="AI15" s="31">
+      <c r="AI15" s="30">
         <v>21.411192214111921</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5001</v>
       </c>
@@ -3275,11 +3239,11 @@
       <c r="AH16" s="12">
         <v>81</v>
       </c>
-      <c r="AI16" s="31">
+      <c r="AI16" s="30">
         <v>20.76923076923077</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5001</v>
       </c>
@@ -3382,11 +3346,11 @@
       <c r="AH17" s="12">
         <v>55</v>
       </c>
-      <c r="AI17" s="31">
+      <c r="AI17" s="30">
         <v>54.455445544554458</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5001</v>
       </c>
@@ -3489,11 +3453,11 @@
       <c r="AH18" s="12">
         <v>113</v>
       </c>
-      <c r="AI18" s="31">
+      <c r="AI18" s="30">
         <v>120.21276595744681</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5001</v>
       </c>
@@ -3596,11 +3560,11 @@
       <c r="AH19" s="12">
         <v>90</v>
       </c>
-      <c r="AI19" s="31">
+      <c r="AI19" s="30">
         <v>56.60377358490566</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5001</v>
       </c>
@@ -3703,11 +3667,11 @@
       <c r="AH20" s="12">
         <v>79</v>
       </c>
-      <c r="AI20" s="31">
+      <c r="AI20" s="30">
         <v>28.51985559566787</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5001</v>
       </c>
@@ -3810,11 +3774,11 @@
       <c r="AH21">
         <v>79</v>
       </c>
-      <c r="AI21" s="31">
+      <c r="AI21" s="30">
         <v>60.305343511450381</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5001</v>
       </c>
@@ -3917,11 +3881,11 @@
       <c r="AH22">
         <v>113</v>
       </c>
-      <c r="AI22" s="31">
+      <c r="AI22" s="30">
         <v>50.672645739910315</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5001</v>
       </c>
@@ -4024,11 +3988,11 @@
       <c r="AH23">
         <v>113</v>
       </c>
-      <c r="AI23" s="31">
+      <c r="AI23" s="30">
         <v>50.672645739910315</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5001</v>
       </c>
@@ -4131,11 +4095,11 @@
       <c r="AH24">
         <v>88</v>
       </c>
-      <c r="AI24" s="31">
+      <c r="AI24" s="30">
         <v>22.857142857142858</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5001</v>
       </c>
@@ -4238,11 +4202,11 @@
       <c r="AH25">
         <v>24</v>
       </c>
-      <c r="AI25" s="31">
+      <c r="AI25" s="30">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5001</v>
       </c>
@@ -4345,11 +4309,11 @@
       <c r="AH26">
         <v>24</v>
       </c>
-      <c r="AI26" s="31">
+      <c r="AI26" s="30">
         <v>51.063829787234042</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5001</v>
       </c>
@@ -4452,11 +4416,11 @@
       <c r="AH27">
         <v>24</v>
       </c>
-      <c r="AI27" s="31">
+      <c r="AI27" s="30">
         <v>64.86486486486487</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13001</v>
       </c>
@@ -4559,11 +4523,11 @@
       <c r="AH28">
         <v>55</v>
       </c>
-      <c r="AI28" s="31">
+      <c r="AI28" s="30">
         <v>13.681592039800995</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5001</v>
       </c>
@@ -4666,11 +4630,11 @@
       <c r="AH29">
         <v>92</v>
       </c>
-      <c r="AI29" s="31">
+      <c r="AI29" s="30">
         <v>71.875</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11001</v>
       </c>
@@ -4773,12 +4737,12 @@
       <c r="AH30">
         <v>88</v>
       </c>
-      <c r="AI30" s="31">
+      <c r="AI30" s="30">
         <v>25.3</v>
       </c>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11001</v>
       </c>
@@ -4871,11 +4835,11 @@
       <c r="AH31">
         <v>88</v>
       </c>
-      <c r="AI31" s="31">
+      <c r="AI31" s="30">
         <v>24.58100558659218</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11001</v>
       </c>
@@ -4978,11 +4942,11 @@
       <c r="AH32">
         <v>55</v>
       </c>
-      <c r="AI32" s="31">
+      <c r="AI32" s="30">
         <v>144.73684210526315</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5001</v>
       </c>
@@ -5073,7 +5037,7 @@
       <c r="AD33">
         <v>100</v>
       </c>
-      <c r="AE33" s="30">
+      <c r="AE33" s="29">
         <v>1</v>
       </c>
       <c r="AF33" t="s">
@@ -5085,11 +5049,11 @@
       <c r="AH33">
         <v>88</v>
       </c>
-      <c r="AI33" s="31">
+      <c r="AI33" s="30">
         <v>23.783783783783782</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5001</v>
       </c>
@@ -5180,7 +5144,7 @@
       <c r="AD34">
         <v>100</v>
       </c>
-      <c r="AE34" s="30">
+      <c r="AE34" s="29">
         <v>1</v>
       </c>
       <c r="AF34" t="s">
@@ -5192,11 +5156,11 @@
       <c r="AH34">
         <v>88</v>
       </c>
-      <c r="AI34" s="31">
+      <c r="AI34" s="30">
         <v>23.783783783783782</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5001</v>
       </c>
@@ -5212,7 +5176,7 @@
       <c r="E35" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="16" t="s">
         <v>128</v>
       </c>
       <c r="G35" t="s">
@@ -5299,11 +5263,11 @@
       <c r="AH35">
         <v>82</v>
       </c>
-      <c r="AI35" s="31">
+      <c r="AI35" s="30">
         <v>49.397590361445786</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5001</v>
       </c>
@@ -5319,7 +5283,7 @@
       <c r="E36" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>199</v>
       </c>
       <c r="G36" t="s">
@@ -5394,7 +5358,7 @@
       <c r="AD36">
         <v>100</v>
       </c>
-      <c r="AE36" s="30">
+      <c r="AE36" s="29">
         <v>1</v>
       </c>
       <c r="AF36" t="s">
@@ -5406,11 +5370,11 @@
       <c r="AH36">
         <v>82</v>
       </c>
-      <c r="AI36" s="31">
+      <c r="AI36" s="30">
         <v>24.046920821114369</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5001</v>
       </c>
@@ -5501,7 +5465,7 @@
       <c r="AD37">
         <v>100</v>
       </c>
-      <c r="AE37" s="30">
+      <c r="AE37" s="29">
         <v>1</v>
       </c>
       <c r="AF37" t="s">
@@ -5513,11 +5477,11 @@
       <c r="AH37">
         <v>82</v>
       </c>
-      <c r="AI37" s="31">
+      <c r="AI37" s="30">
         <v>122.99385030748462</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11001</v>
       </c>
@@ -5620,11 +5584,11 @@
       <c r="AH38">
         <v>82</v>
       </c>
-      <c r="AI38" s="31">
+      <c r="AI38" s="30">
         <v>20.865139949109416</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5001</v>
       </c>
@@ -5727,11 +5691,11 @@
       <c r="AH39">
         <v>55</v>
       </c>
-      <c r="AI39" s="31">
+      <c r="AI39" s="30">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5001</v>
       </c>
@@ -5834,12 +5798,12 @@
       <c r="AH40" s="3">
         <v>55</v>
       </c>
-      <c r="AI40" s="33">
+      <c r="AI40" s="32">
         <v>77.464788732394368</v>
       </c>
       <c r="AJ40" s="3"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>52001</v>
       </c>
@@ -5942,11 +5906,11 @@
       <c r="AH41">
         <v>24</v>
       </c>
-      <c r="AI41" s="31">
+      <c r="AI41" s="30">
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>52001</v>
       </c>
@@ -6049,11 +6013,11 @@
       <c r="AH42">
         <v>24</v>
       </c>
-      <c r="AI42" s="31">
+      <c r="AI42" s="30">
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5001</v>
       </c>
@@ -6156,11 +6120,11 @@
       <c r="AH43">
         <v>24</v>
       </c>
-      <c r="AI43" s="31">
+      <c r="AI43" s="30">
         <v>55.813953488372093</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5001</v>
       </c>
@@ -6263,11 +6227,11 @@
       <c r="AH44">
         <v>24</v>
       </c>
-      <c r="AI44" s="31">
+      <c r="AI44" s="30">
         <v>55.813953488372093</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5001</v>
       </c>
@@ -6370,11 +6334,11 @@
       <c r="AH45">
         <v>88</v>
       </c>
-      <c r="AI45" s="31">
+      <c r="AI45" s="30">
         <v>23.157894736842106</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5001</v>
       </c>
@@ -6477,11 +6441,11 @@
       <c r="AH46">
         <v>77</v>
       </c>
-      <c r="AI46" s="31">
+      <c r="AI46" s="30">
         <v>51.677852348993291</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5001</v>
       </c>
@@ -6584,11 +6548,11 @@
       <c r="AH47">
         <v>129</v>
       </c>
-      <c r="AI47" s="31">
+      <c r="AI47" s="30">
         <v>25.851703406813627</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5001</v>
       </c>
@@ -6691,11 +6655,11 @@
       <c r="AH48">
         <v>129</v>
       </c>
-      <c r="AI48" s="31">
+      <c r="AI48" s="30">
         <v>25.851703406813627</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5001</v>
       </c>
@@ -6798,11 +6762,11 @@
       <c r="AH49">
         <v>129</v>
       </c>
-      <c r="AI49" s="31">
+      <c r="AI49" s="30">
         <v>234.54545454545453</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5001</v>
       </c>
@@ -6905,11 +6869,11 @@
       <c r="AH50">
         <v>129</v>
       </c>
-      <c r="AI50" s="31">
+      <c r="AI50" s="30">
         <v>234.54545454545453</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5001</v>
       </c>
@@ -7012,11 +6976,11 @@
       <c r="AH51">
         <v>24</v>
       </c>
-      <c r="AI51" s="31">
+      <c r="AI51" s="30">
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5001</v>
       </c>
@@ -7119,11 +7083,11 @@
       <c r="AH52">
         <v>24</v>
       </c>
-      <c r="AI52" s="31">
+      <c r="AI52" s="30">
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5001</v>
       </c>
@@ -7226,11 +7190,11 @@
       <c r="AH53">
         <v>82</v>
       </c>
-      <c r="AI53" s="31">
+      <c r="AI53" s="30">
         <v>21.188630490956072</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5001</v>
       </c>
@@ -7333,11 +7297,11 @@
       <c r="AH54">
         <v>55</v>
       </c>
-      <c r="AI54" s="31">
+      <c r="AI54" s="30">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>11001</v>
       </c>
@@ -7440,11 +7404,11 @@
       <c r="AH55">
         <v>55</v>
       </c>
-      <c r="AI55" s="31">
+      <c r="AI55" s="30">
         <v>114.58333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5001</v>
       </c>
@@ -7547,11 +7511,11 @@
       <c r="AH56">
         <v>88</v>
       </c>
-      <c r="AI56" s="31">
+      <c r="AI56" s="30">
         <v>25.360230547550433</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5001</v>
       </c>
@@ -7654,11 +7618,11 @@
       <c r="AH57">
         <v>55</v>
       </c>
-      <c r="AI57" s="31">
+      <c r="AI57" s="30">
         <v>69.620253164556956</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5001</v>
       </c>
@@ -7761,11 +7725,11 @@
       <c r="AH58">
         <v>45</v>
       </c>
-      <c r="AI58" s="31">
+      <c r="AI58" s="30">
         <v>6.1475409836065573</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5001</v>
       </c>
@@ -7856,7 +7820,7 @@
       <c r="AD59" s="4">
         <v>100</v>
       </c>
-      <c r="AE59" s="30">
+      <c r="AE59" s="29">
         <v>1</v>
       </c>
       <c r="AF59" t="s">
@@ -7868,11 +7832,11 @@
       <c r="AH59">
         <v>45</v>
       </c>
-      <c r="AI59" s="31">
+      <c r="AI59" s="30">
         <v>6.0565275908479137</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5001</v>
       </c>
@@ -7975,11 +7939,11 @@
       <c r="AH60">
         <v>55</v>
       </c>
-      <c r="AI60" s="31">
+      <c r="AI60" s="30">
         <v>76.388888888888886</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5001</v>
       </c>
@@ -8082,11 +8046,11 @@
       <c r="AH61">
         <v>55</v>
       </c>
-      <c r="AI61" s="31">
+      <c r="AI61" s="30">
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5001</v>
       </c>
@@ -8189,12 +8153,12 @@
       <c r="AH62" s="3">
         <v>55</v>
       </c>
-      <c r="AI62" s="33">
+      <c r="AI62" s="32">
         <v>94.827586206896555</v>
       </c>
       <c r="AJ62" s="3"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5001</v>
       </c>
@@ -8297,12 +8261,12 @@
       <c r="AH63" s="3">
         <v>55</v>
       </c>
-      <c r="AI63" s="33">
+      <c r="AI63" s="32">
         <v>74.324324324324323</v>
       </c>
       <c r="AJ63" s="3"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5001</v>
       </c>
@@ -8405,11 +8369,11 @@
       <c r="AH64">
         <v>55</v>
       </c>
-      <c r="AI64" s="31">
+      <c r="AI64" s="30">
         <v>134.14634146341464</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>8001</v>
       </c>
@@ -8512,12 +8476,12 @@
       <c r="AH65" s="3">
         <v>90</v>
       </c>
-      <c r="AI65" s="33">
+      <c r="AI65" s="32">
         <v>74.380165289256198</v>
       </c>
       <c r="AJ65" s="3"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5001</v>
       </c>
@@ -8620,11 +8584,11 @@
       <c r="AH66">
         <v>86</v>
       </c>
-      <c r="AI66" s="31">
+      <c r="AI66" s="30">
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5001</v>
       </c>
@@ -8640,7 +8604,7 @@
       <c r="E67" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="18" t="s">
         <v>204</v>
       </c>
       <c r="G67" t="s">
@@ -8715,7 +8679,7 @@
       <c r="AD67" s="4">
         <v>100</v>
       </c>
-      <c r="AE67" s="30">
+      <c r="AE67" s="29">
         <v>1</v>
       </c>
       <c r="AF67" t="s">
@@ -8727,11 +8691,11 @@
       <c r="AH67">
         <v>88</v>
       </c>
-      <c r="AI67" s="31">
+      <c r="AI67" s="30">
         <v>32.835820895522389</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5001</v>
       </c>
@@ -8747,7 +8711,7 @@
       <c r="E68" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="18" t="s">
         <v>206</v>
       </c>
       <c r="G68" t="s">
@@ -8822,7 +8786,7 @@
       <c r="AD68" s="4">
         <v>100</v>
       </c>
-      <c r="AE68" s="30">
+      <c r="AE68" s="29">
         <v>1</v>
       </c>
       <c r="AF68" t="s">
@@ -8834,11 +8798,11 @@
       <c r="AH68">
         <v>88</v>
       </c>
-      <c r="AI68" s="31">
+      <c r="AI68" s="30">
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5001</v>
       </c>
@@ -8854,7 +8818,7 @@
       <c r="E69" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F69" s="18" t="s">
         <v>208</v>
       </c>
       <c r="G69" t="s">
@@ -8929,7 +8893,7 @@
       <c r="AD69" s="4">
         <v>100</v>
       </c>
-      <c r="AE69" s="30">
+      <c r="AE69" s="29">
         <v>1</v>
       </c>
       <c r="AF69" t="s">
@@ -8941,11 +8905,11 @@
       <c r="AH69">
         <v>88</v>
       </c>
-      <c r="AI69" s="31">
+      <c r="AI69" s="30">
         <v>31.541218637992831</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5001</v>
       </c>
@@ -9048,12 +9012,12 @@
       <c r="AH70" s="3">
         <v>81</v>
       </c>
-      <c r="AI70" s="33">
+      <c r="AI70" s="32">
         <v>22.252747252747252</v>
       </c>
       <c r="AJ70" s="3"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5001</v>
       </c>
@@ -9069,7 +9033,7 @@
       <c r="E71" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F71" s="18" t="s">
         <v>150</v>
       </c>
       <c r="G71" t="s">
@@ -9144,7 +9108,7 @@
       <c r="AD71" s="4">
         <v>100</v>
       </c>
-      <c r="AE71" s="30">
+      <c r="AE71" s="29">
         <v>1</v>
       </c>
       <c r="AF71" t="s">
@@ -9156,11 +9120,11 @@
       <c r="AH71">
         <v>93</v>
       </c>
-      <c r="AI71" s="31">
+      <c r="AI71" s="30">
         <v>104.49438202247191</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5001</v>
       </c>
@@ -9176,7 +9140,7 @@
       <c r="E72" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="21" t="s">
         <v>103</v>
       </c>
       <c r="G72" t="s">
@@ -9263,11 +9227,11 @@
       <c r="AH72">
         <v>81</v>
       </c>
-      <c r="AI72" s="31">
+      <c r="AI72" s="30">
         <v>20.403022670025187</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5001</v>
       </c>
@@ -9283,7 +9247,7 @@
       <c r="E73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="21" t="s">
         <v>151</v>
       </c>
       <c r="G73" t="s">
@@ -9370,11 +9334,11 @@
       <c r="AH73">
         <v>93</v>
       </c>
-      <c r="AI73" s="31">
+      <c r="AI73" s="30">
         <v>96.875</v>
       </c>
     </row>
-    <row r="74" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>5001</v>
       </c>
@@ -9387,10 +9351,10 @@
       <c r="D74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="F74" s="33" t="s">
         <v>104</v>
       </c>
       <c r="G74" s="2" t="s">
@@ -9477,11 +9441,11 @@
       <c r="AH74" s="2">
         <v>0</v>
       </c>
-      <c r="AI74" s="32">
+      <c r="AI74" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>11001</v>
       </c>
@@ -9497,7 +9461,7 @@
       <c r="E75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="21" t="s">
         <v>152</v>
       </c>
       <c r="G75" t="s">
@@ -9584,11 +9548,11 @@
       <c r="AH75">
         <v>55</v>
       </c>
-      <c r="AI75" s="31">
+      <c r="AI75" s="30">
         <v>137.5</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5001</v>
       </c>
@@ -9691,11 +9655,11 @@
       <c r="AH76">
         <v>88</v>
       </c>
-      <c r="AI76" s="31">
+      <c r="AI76" s="30">
         <v>23.71967654986523</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5001</v>
       </c>
@@ -9798,11 +9762,11 @@
       <c r="AH77">
         <v>88</v>
       </c>
-      <c r="AI77" s="31">
+      <c r="AI77" s="30">
         <v>23.71967654986523</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>8001</v>
       </c>
@@ -9818,7 +9782,7 @@
       <c r="E78" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="19" t="s">
         <v>105</v>
       </c>
       <c r="G78" s="3" t="s">
@@ -9905,12 +9869,12 @@
       <c r="AH78" s="3">
         <v>24</v>
       </c>
-      <c r="AI78" s="33">
+      <c r="AI78" s="32">
         <v>16.666666666666668</v>
       </c>
       <c r="AJ78" s="3"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5001</v>
       </c>
@@ -9926,7 +9890,7 @@
       <c r="E79" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="19" t="s">
         <v>154</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -10013,12 +9977,12 @@
       <c r="AH79" s="3">
         <v>79</v>
       </c>
-      <c r="AI79" s="33">
+      <c r="AI79" s="32">
         <v>82.291666666666671</v>
       </c>
       <c r="AJ79" s="3"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5001</v>
       </c>
@@ -10121,12 +10085,12 @@
       <c r="AH80" s="3">
         <v>79</v>
       </c>
-      <c r="AI80" s="33">
+      <c r="AI80" s="32">
         <v>82.291666666666671</v>
       </c>
       <c r="AJ80" s="3"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5001</v>
       </c>
@@ -10229,12 +10193,12 @@
       <c r="AH81" s="3">
         <v>79</v>
       </c>
-      <c r="AI81" s="33">
+      <c r="AI81" s="32">
         <v>37.440758293838861</v>
       </c>
       <c r="AJ81" s="3"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5001</v>
       </c>
@@ -10337,11 +10301,11 @@
       <c r="AH82">
         <v>55</v>
       </c>
-      <c r="AI82" s="31">
+      <c r="AI82" s="30">
         <v>98.214285714285708</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5001</v>
       </c>
@@ -10444,11 +10408,11 @@
       <c r="AH83">
         <v>92</v>
       </c>
-      <c r="AI83" s="31">
+      <c r="AI83" s="30">
         <v>67.647058823529406</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5001</v>
       </c>
@@ -10551,11 +10515,11 @@
       <c r="AH84">
         <v>113</v>
       </c>
-      <c r="AI84" s="31">
+      <c r="AI84" s="30">
         <v>68.07228915662651</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5001</v>
       </c>
@@ -10658,11 +10622,11 @@
       <c r="AH85">
         <v>113</v>
       </c>
-      <c r="AI85" s="31">
+      <c r="AI85" s="30">
         <v>67.664670658682638</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>50001</v>
       </c>
@@ -10765,11 +10729,11 @@
       <c r="AH86">
         <v>24</v>
       </c>
-      <c r="AI86" s="31">
+      <c r="AI86" s="30">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5001</v>
       </c>
@@ -10872,11 +10836,11 @@
       <c r="AH87">
         <v>24</v>
       </c>
-      <c r="AI87" s="31">
+      <c r="AI87" s="30">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5001</v>
       </c>
@@ -10979,11 +10943,11 @@
       <c r="AH88">
         <v>24</v>
       </c>
-      <c r="AI88" s="31">
+      <c r="AI88" s="30">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>5001</v>
       </c>
@@ -10996,7 +10960,7 @@
       <c r="D89" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E89" s="28" t="s">
         <v>298</v>
       </c>
       <c r="F89" s="15" t="s">
@@ -11086,11 +11050,11 @@
       <c r="AH89" s="2">
         <v>0</v>
       </c>
-      <c r="AI89" s="32">
+      <c r="AI89" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5001</v>
       </c>
@@ -11193,11 +11157,11 @@
       <c r="AH90">
         <v>113</v>
       </c>
-      <c r="AI90" s="31">
+      <c r="AI90" s="30">
         <v>14.413265306122449</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5001</v>
       </c>
@@ -11300,11 +11264,11 @@
       <c r="AH91">
         <v>24</v>
       </c>
-      <c r="AI91" s="31">
+      <c r="AI91" s="30">
         <v>104.34782608695652</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>52001</v>
       </c>
@@ -11407,11 +11371,11 @@
       <c r="AH92">
         <v>93</v>
       </c>
-      <c r="AI92" s="31">
+      <c r="AI92" s="30">
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8001</v>
       </c>
@@ -11427,7 +11391,7 @@
       <c r="E93" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="F93" s="19" t="s">
         <v>105</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -11514,12 +11478,12 @@
       <c r="AH93" s="3">
         <v>24</v>
       </c>
-      <c r="AI93" s="33">
+      <c r="AI93" s="32">
         <v>16.666666666666668</v>
       </c>
       <c r="AJ93" s="3"/>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>50001</v>
       </c>
@@ -11622,11 +11586,11 @@
       <c r="AH94">
         <v>24</v>
       </c>
-      <c r="AI94" s="31">
+      <c r="AI94" s="30">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5001</v>
       </c>
@@ -11642,7 +11606,7 @@
       <c r="E95" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="20" t="s">
         <v>211</v>
       </c>
       <c r="G95" t="s">
@@ -11717,7 +11681,7 @@
       <c r="AD95" s="4">
         <v>100</v>
       </c>
-      <c r="AE95" s="31">
+      <c r="AE95" s="30">
         <v>1</v>
       </c>
       <c r="AF95" t="s">
@@ -11729,12 +11693,21 @@
       <c r="AH95">
         <v>79</v>
       </c>
-      <c r="AI95" s="31">
+      <c r="AI95" s="30">
         <v>57.246376811594203</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ95" xr:uid="{A3862031-D290-43CE-97A6-320D913D0298}"/>
+  <autoFilter ref="A1:AJ95" xr:uid="{A3862031-D290-43CE-97A6-320D913D0298}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Ahuyama, cruda"/>
+        <filter val="Arroz blanco, pulido, crudo"/>
+        <filter val="Leche de vaca, entera, en polvo"/>
+        <filter val="Leche de vaca, entera, líquida, pasteurizada"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C918:C1048576 C2:C95">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/Proyecto Interno/composicion-nut/TCAC_DANE 020925_rev.xlsx
+++ b/Proyecto Interno/composicion-nut/TCAC_DANE 020925_rev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/composicion-nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{AB30F4E6-BF03-446A-ABD2-E0F167C1E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33FB86DE-63CC-4863-ACAE-0573F0C469A6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{AB30F4E6-BF03-446A-ABD2-E0F167C1E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50080ACB-4662-489F-A0BD-FD36EEBECC41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>codigo_articulo_DANE</t>
+    <t>codigo_articulo</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Proyecto Interno/composicion-nut/TCAC_DANE 020925_rev.xlsx
+++ b/Proyecto Interno/composicion-nut/TCAC_DANE 020925_rev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/composicion-nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{AB30F4E6-BF03-446A-ABD2-E0F167C1E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50080ACB-4662-489F-A0BD-FD36EEBECC41}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{AB30F4E6-BF03-446A-ABD2-E0F167C1E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B873DF1-8E1B-4C12-AB9A-437D0203B7F5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,6 +1221,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1510,10 +1514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3862031-D290-43CE-97A6-320D913D0298}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1643,7 +1648,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1730102</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>4.8888888888888893</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1730101</v>
       </c>
@@ -1845,7 +1850,7 @@
         <v>4.8888888888888893</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
         <v>1850301</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1410503</v>
       </c>
@@ -2048,7 +2053,7 @@
         <v>25.139664804469273</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1210303</v>
       </c>
@@ -2149,7 +2154,7 @@
         <v>81.081081081081081</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1110203</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>24.444444444444443</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1110102</v>
       </c>
@@ -2351,7 +2356,7 @@
         <v>24.929178470254957</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1110101</v>
       </c>
@@ -2452,7 +2457,7 @@
         <v>24.929178470254957</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1110502</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>21.256038647342994</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1320201</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>24.242424242424242</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1320202</v>
       </c>
@@ -2755,7 +2760,7 @@
         <v>21.925133689839573</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1320402</v>
       </c>
@@ -2857,7 +2862,7 @@
       </c>
       <c r="AH13" s="3"/>
     </row>
-    <row r="14" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1110501</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>21.411192214111921</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>1810202</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>20.76923076923077</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>1410201</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>54.455445544554458</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>1620101</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>120.21276595744681</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1210201</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>56.60377358490566</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>1510202</v>
       </c>
@@ -3463,7 +3468,7 @@
         <v>28.51985559566787</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>1510201</v>
       </c>
@@ -3564,7 +3569,7 @@
         <v>60.305343511450381</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>1510102</v>
       </c>
@@ -3665,7 +3670,7 @@
         <v>50.672645739910315</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>1510101</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>50.672645739910315</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>1110503</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>22.857142857142858</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>1310102</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>1310301</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>51.063829787234042</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>1310101</v>
       </c>
@@ -4170,7 +4175,7 @@
         <v>64.86486486486487</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>1410511</v>
       </c>
@@ -4271,7 +4276,7 @@
         <v>13.681592039800995</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>1220103</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>71.875</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>1110504</v>
       </c>
@@ -4474,7 +4479,7 @@
       </c>
       <c r="AH29" s="33"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>1110505</v>
       </c>
@@ -4566,7 +4571,7 @@
       </c>
       <c r="AH30" s="34"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>1410504</v>
       </c>
@@ -4667,7 +4672,7 @@
         <v>144.73684210526315</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>1110202</v>
       </c>
@@ -4768,7 +4773,7 @@
         <v>23.783783783783782</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>1110205</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>23.783783783783782</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>1320101</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>49.397590361445786</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>1320102</v>
       </c>
@@ -5071,7 +5076,7 @@
         <v>24.046920821114369</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>1320401</v>
       </c>
@@ -5172,7 +5177,7 @@
         <v>122.99385030748462</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>1320302</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>20.865139949109416</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>1410301</v>
       </c>
@@ -5374,7 +5379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>1410501</v>
       </c>
@@ -5476,7 +5481,7 @@
       </c>
       <c r="AH39" s="3"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>1310402</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>1310502</v>
       </c>
@@ -5678,7 +5683,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>1310401</v>
       </c>
@@ -5779,7 +5784,7 @@
         <v>55.813953488372093</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>1310501</v>
       </c>
@@ -5880,7 +5885,7 @@
         <v>55.813953488372093</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>1110201</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>23.157894736842106</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>1710101</v>
       </c>
@@ -6486,7 +6491,7 @@
         <v>234.54545454545453</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>1310404</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>1310504</v>
       </c>
@@ -6688,7 +6693,7 @@
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>1320301</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>21.188630490956072</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>1410502</v>
       </c>
@@ -6890,7 +6895,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>1410509</v>
       </c>
@@ -6991,7 +6996,7 @@
         <v>114.58333333333333</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>1110506</v>
       </c>
@@ -7092,7 +7097,7 @@
         <v>25.360230547550433</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>1410510</v>
       </c>
@@ -7193,7 +7198,7 @@
         <v>69.620253164556956</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>1730202</v>
       </c>
@@ -7294,7 +7299,7 @@
         <v>6.1475409836065573</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>1720304</v>
       </c>
@@ -7395,7 +7400,7 @@
         <v>6.0565275908479137</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>1410508</v>
       </c>
@@ -7496,7 +7501,7 @@
         <v>76.388888888888886</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>1410506</v>
       </c>
@@ -7597,7 +7602,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>1420101</v>
       </c>
@@ -7699,7 +7704,7 @@
       </c>
       <c r="AH61" s="3"/>
     </row>
-    <row r="62" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>1410401</v>
       </c>
@@ -7801,7 +7806,7 @@
       </c>
       <c r="AH62" s="3"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>1410101</v>
       </c>
@@ -7902,7 +7907,7 @@
         <v>134.14634146341464</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>1210301</v>
       </c>
@@ -8004,7 +8009,7 @@
       </c>
       <c r="AH64" s="3"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>1720201</v>
       </c>
@@ -8105,7 +8110,7 @@
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>1120101</v>
       </c>
@@ -8206,7 +8211,7 @@
         <v>32.835820895522389</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>1120102</v>
       </c>
@@ -8307,7 +8312,7 @@
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>1120103</v>
       </c>
@@ -8408,7 +8413,7 @@
         <v>31.541218637992831</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>1810101</v>
       </c>
@@ -8510,7 +8515,7 @@
       </c>
       <c r="AH69" s="3"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>1210101</v>
       </c>
@@ -8611,7 +8616,7 @@
         <v>104.49438202247191</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>1810201</v>
       </c>
@@ -8712,7 +8717,7 @@
         <v>20.403022670025187</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>1210102</v>
       </c>
@@ -8813,7 +8818,7 @@
         <v>96.875</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27">
         <v>1820101</v>
       </c>
@@ -8917,7 +8922,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>1410505</v>
       </c>
@@ -9019,7 +9024,7 @@
       </c>
       <c r="AH74"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>1110301</v>
       </c>
@@ -9120,7 +9125,7 @@
         <v>23.71967654986523</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>1110302</v>
       </c>
@@ -9221,7 +9226,7 @@
         <v>23.71967654986523</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>1310405</v>
       </c>
@@ -9323,7 +9328,7 @@
       </c>
       <c r="AH77" s="3"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>1610101</v>
       </c>
@@ -9425,7 +9430,7 @@
       </c>
       <c r="AH78" s="3"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>1610102</v>
       </c>
@@ -9527,7 +9532,7 @@
       </c>
       <c r="AH79" s="3"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>1610103</v>
       </c>
@@ -9629,7 +9634,7 @@
       </c>
       <c r="AH80" s="3"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>1410507</v>
       </c>
@@ -9730,7 +9735,7 @@
         <v>98.214285714285708</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>1220101</v>
       </c>
@@ -9831,7 +9836,7 @@
         <v>67.647058823529406</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>1510302</v>
       </c>
@@ -9932,7 +9937,7 @@
         <v>68.07228915662651</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>1510301</v>
       </c>
@@ -10033,7 +10038,7 @@
         <v>67.664670658682638</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>1310408</v>
       </c>
@@ -10134,7 +10139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>1310403</v>
       </c>
@@ -10235,7 +10240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>1310503</v>
       </c>
@@ -10336,7 +10341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="27">
         <v>1830101</v>
       </c>
@@ -10440,7 +10445,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>1510203</v>
       </c>
@@ -10542,7 +10547,7 @@
       </c>
       <c r="AH89"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>1310201</v>
       </c>
@@ -10643,7 +10648,7 @@
         <v>104.34782608695652</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>1210302</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>1310507</v>
       </c>
@@ -10845,7 +10850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>1510103</v>
       </c>
@@ -10957,7 +10962,16 @@
       <c r="AC95"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH93" xr:uid="{59FC05FF-A455-4E1C-95CF-06AB92E7ED1A}"/>
+  <autoFilter ref="A1:AH93" xr:uid="{59FC05FF-A455-4E1C-95CF-06AB92E7ED1A}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="LECHE EN POLVO ENTERA"/>
+        <filter val="LECHE EN POLVO LACTANTE"/>
+        <filter val="LECHE LARGA VIDA"/>
+        <filter val="LECHE PASTEURIZADA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A918:A1048576 A2:A93">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
